--- a/biology/Zoologie/Caniformia/Caniformia.xlsx
+++ b/biology/Zoologie/Caniformia/Caniformia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caniformes
 Les Caniformes (Caniformia) sont le sous-ordre des carnivores contenant la famille des canidés. Anatomiquement, la bulle tympanique (ou bulbe tympanique) des Caniformes est formée d'une chambre unique ou est divisée par un pseudoseptum, par opposition aux Féliformes dont la bulle tympanique est divisée par un vrai septum tympanique. Il s'agit d'un groupe de mammifères particulièrement bien adaptés à la vie aquatique, plusieurs familles étant entièrement revenues à la vie marine tandis que presque toutes les autres comportent des espèces amphibies.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des familles actuelles
-Familles actuelles, selon Mammal Species of the World (version 3, 2005)  (21 mai 2013)[2] et ITIS      (21 mai 2013)[1]:
+          <t>Liste des familles actuelles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Familles actuelles, selon Mammal Species of the World (version 3, 2005)  (21 mai 2013) et ITIS      (21 mai 2013):
 les Ailuridae Gray, 1843 - le Panda roux
 les Canidae Fischer, 1817 - les chiens, loups…
 les Mephitidae Bonaparte, 1845 - les mouffettes
@@ -526,10 +543,10 @@
 les Procyonidae Gray, 1825 - les ratons laveurs…
 les Ursidae Fischer de Waldheim, 1817 - les ours
 Liste des taxons éteints
-Selon Paleobiology Database                   (mars 2015)[3]:
+Selon Paleobiology Database                   (mars 2015):
 famille †Amphicyonidae Haeckel, 1886
 famille †Desmatophocidae Condon, 1906
-famille †Enaliarctidae Tedford, 1976[4]
+famille †Enaliarctidae Tedford, 1976
 genre †Lycophocyon
 genre †Palaearctonyx
 genre †Procynodictis
@@ -543,8 +560,6 @@
 			Ursus arctos (Ursidae)
 			Daphoenodon superbus (Amphicyonidae, fossile et reconstitution)
 			Crâne fossile de Phoberogale shareri (Hemicyonidae)
-Systématique
-Les trois familles que sont les otariidés (otaries…), les  odobénidés (morses…) et les phocidés (phoques…) sont souvent regroupées au sein du sous-ordre des Pinnipèdes. Ce sous-ordre est aujourd'hui parfois considéré comme obsolète, mais certains auteurs ont maintenu l'existence de Pinnipedia avec le rang de super-famille au sein du sous-ordre des Caniformia. Une étude de biologie moléculaire de 2005 va dans ce sens, en défendant l'hypothèse selon laquelle les Pinnipèdes descendent bien d'un ancêtre commun qui leur est propre (taxon monophylétique), et qu'ils ne partagent pas avec d'autres familles de Caniformia. Cette étude écarte l'hypothèse parfois avancée selon laquelle les phoques (phocidés) seraient apparentés aux loutres, quand les autres Pinnipèdes le seraient plutôt aux ours. L'étude tranche en faveur de l'hypothèse selon laquelle tous les Pinnipèdes seraient bien membres d'un taxon monophylétique (ici une super-famille), surtout apparentée aux Ursidés, au sein du sous-ordre des Caniformia[5]. La taxinomie des Caniformia est donc encore susceptible de discussion et d'évolution.
 </t>
         </is>
       </c>
@@ -570,12 +585,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois familles que sont les otariidés (otaries…), les  odobénidés (morses…) et les phocidés (phoques…) sont souvent regroupées au sein du sous-ordre des Pinnipèdes. Ce sous-ordre est aujourd'hui parfois considéré comme obsolète, mais certains auteurs ont maintenu l'existence de Pinnipedia avec le rang de super-famille au sein du sous-ordre des Caniformia. Une étude de biologie moléculaire de 2005 va dans ce sens, en défendant l'hypothèse selon laquelle les Pinnipèdes descendent bien d'un ancêtre commun qui leur est propre (taxon monophylétique), et qu'ils ne partagent pas avec d'autres familles de Caniformia. Cette étude écarte l'hypothèse parfois avancée selon laquelle les phoques (phocidés) seraient apparentés aux loutres, quand les autres Pinnipèdes le seraient plutôt aux ours. L'étude tranche en faveur de l'hypothèse selon laquelle tous les Pinnipèdes seraient bien membres d'un taxon monophylétique (ici une super-famille), surtout apparentée aux Ursidés, au sein du sous-ordre des Caniformia. La taxinomie des Caniformia est donc encore susceptible de discussion et d'évolution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caniformia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caniformia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Canidés sont la famille actuelle la plus basal de cette branche. Les autres famiiles sont regroupé au sein des Arctoïdes (Arctoidea Flower, 1869) ayant souvent rang d'infra-ordre[6], réunissant les Ursidae, les Musteloidea et les Pinnipedia[7],[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Canidés sont la famille actuelle la plus basal de cette branche. Les autres famiiles sont regroupé au sein des Arctoïdes (Arctoidea Flower, 1869) ayant souvent rang d'infra-ordre, réunissant les Ursidae, les Musteloidea et les Pinnipedia.
 Arbre phylogénique des familles actuelles et éteintes :
 </t>
         </is>
